--- a/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH 2023/Báo cáo BH-SX tháng 10-23.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH 2023/Báo cáo BH-SX tháng 10-23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BÁO CÁO BH" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
   <si>
     <t>TG102LE-4G</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Nạp Firmware</t>
+  </si>
+  <si>
+    <t>Đang xử lý</t>
   </si>
 </sst>
 </file>
@@ -2018,11 +2021,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="1713638768"/>
-        <c:axId val="1713640400"/>
+        <c:axId val="-1116151008"/>
+        <c:axId val="-1116154816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1713638768"/>
+        <c:axId val="-1116151008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,7 +2082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1713640400"/>
+        <c:crossAx val="-1116154816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2087,7 +2090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1713640400"/>
+        <c:axId val="-1116154816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2097,7 +2100,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1713638768"/>
+        <c:crossAx val="-1116151008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4211,8 +4214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5152,10 +5155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5478,21 +5481,21 @@
       <c r="A16" s="27">
         <v>4</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>59</v>
+      <c r="B16" s="28" t="s">
+        <v>2</v>
       </c>
       <c r="C16" s="29">
-        <v>2</v>
+        <v>992</v>
       </c>
       <c r="D16" s="29">
         <v>0</v>
       </c>
       <c r="E16" s="30">
         <f>C16-D16</f>
-        <v>2</v>
+        <v>992</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="41"/>
@@ -5507,27 +5510,27 @@
         <v>5</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="29">
         <v>0</v>
       </c>
       <c r="E17" s="30">
         <f>C17-D17</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="51" t="s">
         <v>72</v>
       </c>
       <c r="G17" s="34"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="37"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="40"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -5535,53 +5538,81 @@
         <v>6</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C18" s="29">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D18" s="29">
         <v>0</v>
       </c>
       <c r="E18" s="30">
         <f>C18-D18</f>
+        <v>3</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="40"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>7</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="29">
         <v>22</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="D19" s="29">
+        <v>0</v>
+      </c>
+      <c r="E19" s="30">
+        <f>C19-D19</f>
+        <v>22</v>
+      </c>
+      <c r="F19" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="G19" s="34"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="32">
-        <f>SUM(C13:C18)</f>
-        <v>514</v>
-      </c>
-      <c r="D19" s="32">
-        <v>0</v>
-      </c>
-      <c r="E19" s="26">
-        <f>SUM(E13:E18)</f>
-        <v>514</v>
-      </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="35"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="32">
+        <f>SUM(C13:C19)</f>
+        <v>1506</v>
+      </c>
+      <c r="D20" s="32">
+        <v>0</v>
+      </c>
+      <c r="E20" s="26">
+        <f>SUM(E13:E19)</f>
+        <v>1506</v>
+      </c>
+      <c r="F20" s="52"/>
+      <c r="G20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>

--- a/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH 2023/Báo cáo BH-SX tháng 10-23.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH 2023/Báo cáo BH-SX tháng 10-23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BÁO CÁO BH" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
   <si>
     <t>TG102LE-4G</t>
   </si>
@@ -245,15 +245,9 @@
     <t>Mạch lỗi</t>
   </si>
   <si>
-    <t>TB Demo</t>
-  </si>
-  <si>
     <t>Thiếu dây cảm biến</t>
   </si>
   <si>
-    <t>Đang sửa chữa</t>
-  </si>
-  <si>
     <t>Chưa xử lý</t>
   </si>
   <si>
@@ -282,6 +276,12 @@
   </si>
   <si>
     <t>Đang xử lý</t>
+  </si>
+  <si>
+    <t>TB Demo lỗi</t>
+  </si>
+  <si>
+    <t>Nhập kho thành phẩm</t>
   </si>
 </sst>
 </file>
@@ -2021,11 +2021,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="-1116151008"/>
-        <c:axId val="-1116154816"/>
+        <c:axId val="-924337296"/>
+        <c:axId val="-924350896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1116151008"/>
+        <c:axId val="-924337296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2082,7 +2082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1116154816"/>
+        <c:crossAx val="-924350896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2090,7 +2090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1116154816"/>
+        <c:axId val="-924350896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,7 +2100,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1116151008"/>
+        <c:crossAx val="-924337296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4214,7 +4214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="9" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
@@ -5120,7 +5120,7 @@
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="E37" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F37" s="6">
         <v>0</v>
@@ -5155,10 +5155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5229,7 +5229,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>48</v>
@@ -5250,7 +5250,7 @@
         <v>1108</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>48</v>
@@ -5269,7 +5269,7 @@
         <v>992</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>48</v>
@@ -5288,7 +5288,7 @@
         <v>692</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>48</v>
@@ -5302,12 +5302,12 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="71"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="2">
         <v>223</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>48</v>
@@ -5317,52 +5317,50 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+    <row r="9" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="71"/>
+      <c r="C9" s="2">
+        <v>650</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="40"/>
-    </row>
-    <row r="10" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="63"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="34"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
       <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="36"/>
+      <c r="A11" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="63"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="41"/>
       <c r="I11" s="42"/>
       <c r="J11" s="43"/>
@@ -5371,21 +5369,19 @@
       <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="37"/>
+      <c r="A12" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="41"/>
       <c r="I12" s="42"/>
       <c r="J12" s="43"/>
@@ -5393,27 +5389,22 @@
       <c r="L12" s="34"/>
       <c r="M12" s="40"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <v>1</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="29">
-        <v>52</v>
-      </c>
-      <c r="D13" s="29">
-        <v>0</v>
-      </c>
-      <c r="E13" s="30">
-        <f>C13-D13</f>
-        <v>52</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="34"/>
+    <row r="13" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="37"/>
       <c r="H13" s="41"/>
       <c r="I13" s="42"/>
       <c r="J13" s="43"/>
@@ -5423,23 +5414,23 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="C14" s="29">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="D14" s="29">
         <v>0</v>
       </c>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">C14</f>
-        <v>178</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>75</v>
+        <f>C14-D14</f>
+        <v>52</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="41"/>
@@ -5451,23 +5442,23 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C15" s="29">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="D15" s="29">
         <v>0</v>
       </c>
       <c r="E15" s="30">
-        <f>C15-D15</f>
-        <v>257</v>
+        <f t="shared" ref="E15" si="0">C15</f>
+        <v>178</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="41"/>
@@ -5479,23 +5470,23 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="29">
-        <v>992</v>
+        <v>257</v>
       </c>
       <c r="D16" s="29">
         <v>0</v>
       </c>
       <c r="E16" s="30">
         <f>C16-D16</f>
-        <v>992</v>
+        <v>257</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="41"/>
@@ -5507,23 +5498,23 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
-        <v>5</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>59</v>
+        <v>4</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>2</v>
       </c>
       <c r="C17" s="29">
-        <v>2</v>
+        <v>992</v>
       </c>
       <c r="D17" s="29">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E17" s="30">
         <f>C17-D17</f>
-        <v>2</v>
+        <v>342</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="41"/>
@@ -5535,89 +5526,117 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="29">
         <v>0</v>
       </c>
       <c r="E18" s="30">
         <f>C18-D18</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G18" s="34"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="37"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="34"/>
       <c r="M18" s="40"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C19" s="29">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D19" s="29">
         <v>0</v>
       </c>
       <c r="E19" s="30">
         <f>C19-D19</f>
+        <v>3</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="40"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>7</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="29">
         <v>22</v>
       </c>
-      <c r="F19" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="D20" s="29">
+        <v>0</v>
+      </c>
+      <c r="E20" s="30">
+        <f>C20-D20</f>
+        <v>22</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="32">
-        <f>SUM(C13:C19)</f>
+      <c r="B21" s="61"/>
+      <c r="C21" s="32">
+        <f>SUM(C14:C20)</f>
         <v>1506</v>
       </c>
-      <c r="D20" s="32">
-        <v>0</v>
-      </c>
-      <c r="E20" s="26">
-        <f>SUM(E13:E19)</f>
-        <v>1506</v>
-      </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="35"/>
+      <c r="D21" s="32">
+        <v>650</v>
+      </c>
+      <c r="E21" s="26">
+        <f>SUM(E14:E20)</f>
+        <v>856</v>
+      </c>
+      <c r="F21" s="52"/>
+      <c r="G21" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="B5:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5628,8 +5647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5647,7 +5666,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -5813,13 +5832,27 @@
       <c r="C7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="18"/>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>19</v>
+      </c>
+      <c r="J7" s="18">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
